--- a/sprints_teste.xlsx
+++ b/sprints_teste.xlsx
@@ -524,45 +524,45 @@
         <v>45658</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45677</v>
+        <v>45671</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>665</v>
+        <v>819</v>
       </c>
       <c r="I2" t="n">
-        <v>557</v>
+        <v>609</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="N2" t="n">
-        <v>54.74</v>
+        <v>30.53</v>
       </c>
       <c r="O2" t="n">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
@@ -572,48 +572,48 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45678</v>
+        <v>45672</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45697</v>
+        <v>45684</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H3" t="n">
-        <v>665</v>
+        <v>504</v>
       </c>
       <c r="I3" t="n">
-        <v>655</v>
+        <v>363</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="M3" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="N3" t="n">
-        <v>39.37</v>
+        <v>42.17</v>
       </c>
       <c r="O3" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -623,48 +623,48 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45698</v>
+        <v>45685</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45711</v>
+        <v>45696</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
-        <v>546</v>
+        <v>440</v>
       </c>
       <c r="I4" t="n">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="M4" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="N4" t="n">
-        <v>35.61</v>
+        <v>37.61</v>
       </c>
       <c r="O4" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -674,48 +674,48 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45712</v>
+        <v>45697</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45727</v>
+        <v>45711</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="I5" t="n">
-        <v>216</v>
+        <v>505</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="M5" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="N5" t="n">
-        <v>38.28</v>
+        <v>31.64</v>
       </c>
       <c r="O5" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -725,28 +725,28 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45728</v>
+        <v>45712</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45747</v>
+        <v>45732</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>608</v>
+        <v>1000</v>
       </c>
       <c r="I6" t="n">
-        <v>534</v>
+        <v>816</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -754,19 +754,19 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="M6" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="N6" t="n">
-        <v>35.86</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -776,48 +776,48 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>45748</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45764</v>
-      </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H7" t="n">
-        <v>672</v>
+        <v>525</v>
       </c>
       <c r="I7" t="n">
-        <v>565</v>
+        <v>495</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="M7" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="N7" t="n">
-        <v>61.91</v>
+        <v>63.2</v>
       </c>
       <c r="O7" t="n">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -827,48 +827,48 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45765</v>
+        <v>45749</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45780</v>
+        <v>45762</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H8" t="n">
-        <v>1050</v>
+        <v>624</v>
       </c>
       <c r="I8" t="n">
-        <v>863</v>
+        <v>535</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N8" t="n">
-        <v>41.4</v>
+        <v>38.6</v>
       </c>
       <c r="O8" t="n">
-        <v>150</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -878,48 +878,48 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45781</v>
+        <v>45763</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45792</v>
+        <v>45784</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
-        <v>495</v>
+        <v>840</v>
       </c>
       <c r="I9" t="n">
-        <v>481</v>
+        <v>648</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="N9" t="n">
-        <v>45.71</v>
+        <v>50.68</v>
       </c>
       <c r="O9" t="n">
-        <v>99</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -929,48 +929,48 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45793</v>
+        <v>45785</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45814</v>
+        <v>45798</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>1050</v>
+        <v>364</v>
       </c>
       <c r="I10" t="n">
-        <v>947</v>
+        <v>282</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="M10" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="N10" t="n">
-        <v>56.23</v>
+        <v>42.48</v>
       </c>
       <c r="O10" t="n">
-        <v>210</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -980,48 +980,48 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45815</v>
+        <v>45799</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45836</v>
+        <v>45809</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H11" t="n">
-        <v>1050</v>
+        <v>200</v>
       </c>
       <c r="I11" t="n">
-        <v>846</v>
+        <v>180</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="M11" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="N11" t="n">
-        <v>41.58</v>
+        <v>50.34</v>
       </c>
       <c r="O11" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1031,28 +1031,28 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45837</v>
+        <v>45810</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45855</v>
+        <v>45827</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" t="n">
+        <v>41</v>
+      </c>
+      <c r="G12" t="n">
         <v>37</v>
       </c>
-      <c r="G12" t="n">
-        <v>34</v>
-      </c>
       <c r="H12" t="n">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I12" t="n">
-        <v>413</v>
+        <v>208</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1060,19 +1060,19 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N12" t="n">
-        <v>43.76</v>
+        <v>42.38</v>
       </c>
       <c r="O12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -1082,48 +1082,48 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45856</v>
+        <v>45828</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45873</v>
+        <v>45849</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H13" t="n">
-        <v>306</v>
+        <v>630</v>
       </c>
       <c r="I13" t="n">
-        <v>266</v>
+        <v>621</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="M13" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="N13" t="n">
-        <v>34.49</v>
+        <v>31.16</v>
       </c>
       <c r="O13" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1133,28 +1133,28 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45874</v>
+        <v>45850</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45884</v>
+        <v>45869</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H14" t="n">
-        <v>360</v>
+        <v>532</v>
       </c>
       <c r="I14" t="n">
-        <v>283</v>
+        <v>439</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1162,19 +1162,19 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="L14" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="M14" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N14" t="n">
-        <v>49.19</v>
+        <v>50.51</v>
       </c>
       <c r="O14" t="n">
-        <v>60</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -1184,48 +1184,48 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45885</v>
+        <v>45870</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45902</v>
+        <v>45881</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>425</v>
+        <v>231</v>
       </c>
       <c r="I15" t="n">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="N15" t="n">
-        <v>33.15</v>
+        <v>55.68</v>
       </c>
       <c r="O15" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -1235,48 +1235,48 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45903</v>
+        <v>45882</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45921</v>
+        <v>45895</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G16" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H16" t="n">
-        <v>504</v>
+        <v>819</v>
       </c>
       <c r="I16" t="n">
-        <v>451</v>
+        <v>676</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="L16" t="n">
         <v>0.21</v>
       </c>
       <c r="M16" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="N16" t="n">
-        <v>43.85</v>
+        <v>35.54</v>
       </c>
       <c r="O16" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
@@ -1286,48 +1286,48 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45922</v>
+        <v>45896</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45934</v>
+        <v>45912</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>336</v>
+        <v>560</v>
       </c>
       <c r="I17" t="n">
-        <v>254</v>
+        <v>438</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.13</v>
       </c>
-      <c r="M17" t="n">
-        <v>0.11</v>
-      </c>
       <c r="N17" t="n">
-        <v>51.17</v>
+        <v>52.52</v>
       </c>
       <c r="O17" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -1337,28 +1337,28 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45935</v>
+        <v>45913</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45951</v>
+        <v>45925</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H18" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="I18" t="n">
-        <v>292</v>
+        <v>581</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1366,19 +1366,19 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
         <v>0.23</v>
       </c>
       <c r="M18" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="N18" t="n">
-        <v>34.76</v>
+        <v>43.66</v>
       </c>
       <c r="O18" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -1388,28 +1388,28 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45952</v>
+        <v>45926</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45963</v>
+        <v>45943</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H19" t="n">
-        <v>264</v>
+        <v>714</v>
       </c>
       <c r="I19" t="n">
-        <v>229</v>
+        <v>549</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1417,19 +1417,19 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L19" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="M19" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="N19" t="n">
-        <v>39.94</v>
+        <v>51.58</v>
       </c>
       <c r="O19" t="n">
-        <v>66</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
@@ -1439,48 +1439,48 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45964</v>
+        <v>45944</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45984</v>
+        <v>45960</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H20" t="n">
-        <v>700</v>
+        <v>336</v>
       </c>
       <c r="I20" t="n">
-        <v>616</v>
+        <v>334</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="L20" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="M20" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="N20" t="n">
-        <v>54.91</v>
+        <v>57.3</v>
       </c>
       <c r="O20" t="n">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -1490,28 +1490,28 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45985</v>
+        <v>45961</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>46002</v>
+        <v>45979</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G21" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H21" t="n">
-        <v>918</v>
+        <v>504</v>
       </c>
       <c r="I21" t="n">
-        <v>714</v>
+        <v>399</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1519,19 +1519,19 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="L21" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="M21" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="N21" t="n">
-        <v>38.92</v>
+        <v>60.16</v>
       </c>
       <c r="O21" t="n">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -1541,48 +1541,48 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>46003</v>
+        <v>45980</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>46018</v>
+        <v>45990</v>
       </c>
       <c r="D22" t="n">
         <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H22" t="n">
-        <v>810</v>
+        <v>600</v>
       </c>
       <c r="I22" t="n">
-        <v>646</v>
+        <v>492</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L22" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="M22" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="N22" t="n">
-        <v>51.5</v>
+        <v>39.05</v>
       </c>
       <c r="O22" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -1592,28 +1592,28 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>46019</v>
+        <v>45991</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>46032</v>
+        <v>46011</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G23" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H23" t="n">
-        <v>312</v>
+        <v>840</v>
       </c>
       <c r="I23" t="n">
-        <v>254</v>
+        <v>801</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1621,19 +1621,19 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="M23" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="N23" t="n">
-        <v>60.46</v>
+        <v>62.04</v>
       </c>
       <c r="O23" t="n">
-        <v>78</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -1643,28 +1643,28 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>46033</v>
+        <v>46012</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>46053</v>
+        <v>46025</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H24" t="n">
-        <v>1000</v>
+        <v>312</v>
       </c>
       <c r="I24" t="n">
-        <v>827</v>
+        <v>222</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1672,19 +1672,19 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L24" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="N24" t="n">
-        <v>41.53</v>
+        <v>42.38</v>
       </c>
       <c r="O24" t="n">
-        <v>200</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
@@ -1694,48 +1694,48 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>46054</v>
+        <v>46026</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>46068</v>
+        <v>46036</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
         <v>37</v>
       </c>
       <c r="G25" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H25" t="n">
-        <v>252</v>
+        <v>350</v>
       </c>
       <c r="I25" t="n">
-        <v>224</v>
+        <v>339</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="M25" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="N25" t="n">
-        <v>51.42</v>
+        <v>32.09</v>
       </c>
       <c r="O25" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -1745,48 +1745,48 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>46069</v>
+        <v>46037</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>46080</v>
+        <v>46058</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G26" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H26" t="n">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="I26" t="n">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="M26" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="N26" t="n">
-        <v>51.37</v>
+        <v>52.42</v>
       </c>
       <c r="O26" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -1796,28 +1796,28 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>46081</v>
+        <v>46059</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>46097</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H27" t="n">
-        <v>320</v>
+        <v>675</v>
       </c>
       <c r="I27" t="n">
-        <v>273</v>
+        <v>626</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1825,19 +1825,19 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="M27" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="N27" t="n">
-        <v>49.91</v>
+        <v>55.74</v>
       </c>
       <c r="O27" t="n">
-        <v>80</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28">
@@ -1847,48 +1847,48 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>46098</v>
+        <v>46075</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>46118</v>
+        <v>46090</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H28" t="n">
-        <v>1260</v>
+        <v>450</v>
       </c>
       <c r="I28" t="n">
-        <v>1090</v>
+        <v>388</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="M28" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="N28" t="n">
-        <v>55.54</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="O28" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -1898,48 +1898,48 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>46119</v>
+        <v>46091</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>46130</v>
+        <v>46110</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H29" t="n">
-        <v>264</v>
+        <v>684</v>
       </c>
       <c r="I29" t="n">
-        <v>258</v>
+        <v>611</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="N29" t="n">
-        <v>50.17</v>
+        <v>35.77</v>
       </c>
       <c r="O29" t="n">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -1949,28 +1949,28 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
+        <v>46111</v>
+      </c>
+      <c r="C30" s="2" t="n">
         <v>46131</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>46149</v>
-      </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20</v>
+      </c>
+      <c r="G30" t="n">
         <v>18</v>
       </c>
-      <c r="F30" t="n">
-        <v>25</v>
-      </c>
-      <c r="G30" t="n">
-        <v>21</v>
-      </c>
       <c r="H30" t="n">
-        <v>360</v>
+        <v>960</v>
       </c>
       <c r="I30" t="n">
-        <v>282</v>
+        <v>908</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1978,19 +1978,19 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="L30" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="M30" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="N30" t="n">
-        <v>37.09</v>
+        <v>39.09</v>
       </c>
       <c r="O30" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
@@ -2000,28 +2000,28 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
+        <v>46132</v>
+      </c>
+      <c r="C31" s="2" t="n">
         <v>46150</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>46160</v>
-      </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H31" t="n">
-        <v>540</v>
+        <v>1260</v>
       </c>
       <c r="I31" t="n">
-        <v>515</v>
+        <v>1101</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2029,19 +2029,19 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L31" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="N31" t="n">
-        <v>54.12</v>
+        <v>61.07</v>
       </c>
       <c r="O31" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32">
@@ -2051,48 +2051,48 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
+        <v>46151</v>
+      </c>
+      <c r="C32" s="2" t="n">
         <v>46161</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>46182</v>
-      </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
         <v>43</v>
       </c>
       <c r="G32" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H32" t="n">
-        <v>1050</v>
+        <v>420</v>
       </c>
       <c r="I32" t="n">
-        <v>885</v>
+        <v>357</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="L32" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="M32" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="N32" t="n">
-        <v>68.73999999999999</v>
+        <v>35.52</v>
       </c>
       <c r="O32" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -2102,48 +2102,48 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>46183</v>
+        <v>46162</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>46197</v>
+        <v>46173</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G33" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H33" t="n">
-        <v>700</v>
+        <v>396</v>
       </c>
       <c r="I33" t="n">
-        <v>657</v>
+        <v>373</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L33" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="M33" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="N33" t="n">
-        <v>62.65</v>
+        <v>66.09</v>
       </c>
       <c r="O33" t="n">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -2153,48 +2153,48 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>46198</v>
+        <v>46174</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>46209</v>
+        <v>46194</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F34" t="n">
         <v>25</v>
       </c>
       <c r="G34" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H34" t="n">
-        <v>528</v>
+        <v>800</v>
       </c>
       <c r="I34" t="n">
-        <v>416</v>
+        <v>672</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="M34" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="N34" t="n">
-        <v>66.41</v>
+        <v>65.83</v>
       </c>
       <c r="O34" t="n">
-        <v>88</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35">
@@ -2204,48 +2204,48 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>46210</v>
+        <v>46195</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>46231</v>
+        <v>46212</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G35" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H35" t="n">
-        <v>1260</v>
+        <v>544</v>
       </c>
       <c r="I35" t="n">
-        <v>1038</v>
+        <v>392</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="L35" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="M35" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="N35" t="n">
-        <v>61.04</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="O35" t="n">
-        <v>210</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36">
@@ -2255,28 +2255,28 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>46232</v>
+        <v>46213</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>46252</v>
+        <v>46230</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G36" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>480</v>
+        <v>1190</v>
       </c>
       <c r="I36" t="n">
-        <v>429</v>
+        <v>1177</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2284,19 +2284,19 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L36" t="n">
-        <v>0.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M36" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="N36" t="n">
-        <v>66.73999999999999</v>
+        <v>41.7</v>
       </c>
       <c r="O36" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37">
@@ -2306,48 +2306,48 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>46253</v>
+        <v>46231</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>46264</v>
+        <v>46245</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F37" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G37" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H37" t="n">
-        <v>297</v>
+        <v>490</v>
       </c>
       <c r="I37" t="n">
-        <v>211</v>
+        <v>352</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L37" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="M37" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="N37" t="n">
-        <v>49.53</v>
+        <v>56.31</v>
       </c>
       <c r="O37" t="n">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -2357,48 +2357,48 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>46265</v>
+        <v>46246</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>46282</v>
+        <v>46263</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G38" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H38" t="n">
-        <v>612</v>
+        <v>510</v>
       </c>
       <c r="I38" t="n">
-        <v>540</v>
+        <v>403</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="L38" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="M38" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="N38" t="n">
-        <v>48.97</v>
+        <v>66.93000000000001</v>
       </c>
       <c r="O38" t="n">
-        <v>153</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>46283</v>
+        <v>46264</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>46304</v>
+        <v>46285</v>
       </c>
       <c r="D39" t="n">
         <v>5</v>
@@ -2420,36 +2420,36 @@
         <v>21</v>
       </c>
       <c r="F39" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G39" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H39" t="n">
-        <v>945</v>
+        <v>1050</v>
       </c>
       <c r="I39" t="n">
-        <v>667</v>
+        <v>932</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L39" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="M39" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="N39" t="n">
-        <v>65.98999999999999</v>
+        <v>52.97</v>
       </c>
       <c r="O39" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40">
@@ -2459,48 +2459,48 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>46305</v>
+        <v>46286</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>46317</v>
+        <v>46303</v>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H40" t="n">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="I40" t="n">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M40" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="N40" t="n">
-        <v>40.16</v>
+        <v>41.61</v>
       </c>
       <c r="O40" t="n">
-        <v>60</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -2510,48 +2510,48 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
+        <v>46304</v>
+      </c>
+      <c r="C41" s="2" t="n">
         <v>46318</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>46338</v>
-      </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F41" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G41" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H41" t="n">
+        <v>630</v>
+      </c>
+      <c r="I41" t="n">
         <v>480</v>
       </c>
-      <c r="I41" t="n">
-        <v>454</v>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="L41" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="M41" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="N41" t="n">
-        <v>58.99</v>
+        <v>39.97</v>
       </c>
       <c r="O41" t="n">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42">
@@ -2561,48 +2561,48 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>46339</v>
+        <v>46319</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>46358</v>
+        <v>46334</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G42" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H42" t="n">
-        <v>456</v>
+        <v>945</v>
       </c>
       <c r="I42" t="n">
-        <v>412</v>
+        <v>706</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K42" t="n">
         <v>3.2</v>
       </c>
       <c r="L42" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="M42" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N42" t="n">
-        <v>63.56</v>
+        <v>38.82</v>
       </c>
       <c r="O42" t="n">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43">
@@ -2612,48 +2612,48 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>46359</v>
+        <v>46335</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>46376</v>
+        <v>46347</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G43" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H43" t="n">
-        <v>425</v>
+        <v>756</v>
       </c>
       <c r="I43" t="n">
-        <v>369</v>
+        <v>594</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="M43" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="N43" t="n">
-        <v>36.25</v>
+        <v>42.51</v>
       </c>
       <c r="O43" t="n">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
@@ -2663,48 +2663,48 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>46377</v>
+        <v>46348</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>46397</v>
+        <v>46358</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G44" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H44" t="n">
-        <v>640</v>
+        <v>180</v>
       </c>
       <c r="I44" t="n">
-        <v>506</v>
+        <v>179</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L44" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="M44" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="N44" t="n">
-        <v>55.8</v>
+        <v>35.34</v>
       </c>
       <c r="O44" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
@@ -2714,48 +2714,48 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>46398</v>
+        <v>46359</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>46412</v>
+        <v>46374</v>
       </c>
       <c r="D45" t="n">
         <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F45" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G45" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H45" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="I45" t="n">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L45" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="M45" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="N45" t="n">
-        <v>45.99</v>
+        <v>63.48</v>
       </c>
       <c r="O45" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46">
@@ -2765,48 +2765,48 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>46413</v>
+        <v>46375</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>46433</v>
+        <v>46389</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F46" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G46" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H46" t="n">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="I46" t="n">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L46" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="M46" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="N46" t="n">
-        <v>54.73</v>
+        <v>45.9</v>
       </c>
       <c r="O46" t="n">
-        <v>180</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -2816,28 +2816,28 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>46434</v>
+        <v>46390</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>46447</v>
+        <v>46401</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F47" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G47" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H47" t="n">
-        <v>312</v>
+        <v>462</v>
       </c>
       <c r="I47" t="n">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2845,19 +2845,19 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="L47" t="n">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="M47" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="N47" t="n">
-        <v>43.65</v>
+        <v>62.66</v>
       </c>
       <c r="O47" t="n">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
@@ -2867,28 +2867,28 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>46448</v>
+        <v>46402</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>46459</v>
+        <v>46423</v>
       </c>
       <c r="D48" t="n">
         <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G48" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H48" t="n">
-        <v>165</v>
+        <v>441</v>
       </c>
       <c r="I48" t="n">
-        <v>159</v>
+        <v>329</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2896,19 +2896,19 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L48" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="M48" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="N48" t="n">
-        <v>60.61</v>
+        <v>68.52</v>
       </c>
       <c r="O48" t="n">
-        <v>55</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49">
@@ -2918,45 +2918,45 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>46460</v>
+        <v>46424</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>46470</v>
+        <v>46434</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G49" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H49" t="n">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="I49" t="n">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="L49" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="M49" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="N49" t="n">
-        <v>30.95</v>
+        <v>39.09</v>
       </c>
       <c r="O49" t="n">
         <v>70</v>
@@ -2969,48 +2969,48 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>46471</v>
+        <v>46435</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>46486</v>
+        <v>46445</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G50" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H50" t="n">
-        <v>735</v>
+        <v>210</v>
       </c>
       <c r="I50" t="n">
-        <v>568</v>
+        <v>207</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L50" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="M50" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="N50" t="n">
-        <v>56.14</v>
+        <v>32.85</v>
       </c>
       <c r="O50" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
@@ -3020,48 +3020,48 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>46487</v>
+        <v>46446</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>46507</v>
+        <v>46459</v>
       </c>
       <c r="D51" t="n">
         <v>5</v>
       </c>
       <c r="E51" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F51" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G51" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H51" t="n">
-        <v>900</v>
+        <v>585</v>
       </c>
       <c r="I51" t="n">
-        <v>800</v>
+        <v>441</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="M51" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="N51" t="n">
-        <v>51.75</v>
+        <v>59.63</v>
       </c>
       <c r="O51" t="n">
-        <v>180</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52">
@@ -3071,48 +3071,48 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>46508</v>
+        <v>46460</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>46525</v>
+        <v>46473</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F52" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G52" t="n">
         <v>35</v>
       </c>
       <c r="H52" t="n">
-        <v>255</v>
+        <v>637</v>
       </c>
       <c r="I52" t="n">
-        <v>195</v>
+        <v>448</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="L52" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="M52" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N52" t="n">
-        <v>63.72</v>
+        <v>57.32</v>
       </c>
       <c r="O52" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53">
@@ -3122,48 +3122,48 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>46526</v>
+        <v>46474</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>46536</v>
+        <v>46493</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G53" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H53" t="n">
-        <v>240</v>
+        <v>950</v>
       </c>
       <c r="I53" t="n">
-        <v>206</v>
+        <v>828</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L53" t="n">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="M53" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="N53" t="n">
-        <v>50.12</v>
+        <v>50.86</v>
       </c>
       <c r="O53" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54">
@@ -3173,48 +3173,48 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>46537</v>
+        <v>46494</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>46553</v>
+        <v>46506</v>
       </c>
       <c r="D54" t="n">
         <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F54" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G54" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H54" t="n">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="I54" t="n">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L54" t="n">
         <v>0.14</v>
       </c>
       <c r="M54" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="N54" t="n">
-        <v>58.34</v>
+        <v>56.13</v>
       </c>
       <c r="O54" t="n">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
@@ -3224,48 +3224,48 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>46554</v>
+        <v>46507</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>46573</v>
+        <v>46519</v>
       </c>
       <c r="D55" t="n">
         <v>3</v>
       </c>
       <c r="E55" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G55" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H55" t="n">
-        <v>456</v>
+        <v>324</v>
       </c>
       <c r="I55" t="n">
-        <v>443</v>
+        <v>260</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L55" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="M55" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N55" t="n">
-        <v>63.11</v>
+        <v>56.57</v>
       </c>
       <c r="O55" t="n">
-        <v>152</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
@@ -3275,48 +3275,48 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>46574</v>
+        <v>46520</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>46590</v>
+        <v>46532</v>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G56" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H56" t="n">
-        <v>560</v>
+        <v>324</v>
       </c>
       <c r="I56" t="n">
-        <v>459</v>
+        <v>229</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L56" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="M56" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="N56" t="n">
-        <v>41.04</v>
+        <v>66.5</v>
       </c>
       <c r="O56" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57">
@@ -3326,48 +3326,48 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>46591</v>
+        <v>46533</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>46604</v>
+        <v>46552</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F57" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G57" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H57" t="n">
-        <v>351</v>
+        <v>570</v>
       </c>
       <c r="I57" t="n">
-        <v>282</v>
+        <v>543</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="L57" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="M57" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="N57" t="n">
-        <v>58.98</v>
+        <v>58.26</v>
       </c>
       <c r="O57" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58">
@@ -3377,48 +3377,48 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>46605</v>
+        <v>46553</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>46615</v>
+        <v>46573</v>
       </c>
       <c r="D58" t="n">
         <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F58" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G58" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H58" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I58" t="n">
-        <v>421</v>
+        <v>542</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="L58" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="M58" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="N58" t="n">
-        <v>69.01000000000001</v>
+        <v>48.9</v>
       </c>
       <c r="O58" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
@@ -3428,48 +3428,48 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>46616</v>
+        <v>46574</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>46636</v>
+        <v>46589</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G59" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H59" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="I59" t="n">
-        <v>541</v>
+        <v>375</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="L59" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="M59" t="n">
         <v>0.13</v>
       </c>
       <c r="N59" t="n">
-        <v>52.95</v>
+        <v>56.22</v>
       </c>
       <c r="O59" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
@@ -3479,48 +3479,48 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>46637</v>
+        <v>46590</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>46649</v>
+        <v>46603</v>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F60" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G60" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H60" t="n">
-        <v>576</v>
+        <v>455</v>
       </c>
       <c r="I60" t="n">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L60" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M60" t="n">
         <v>0.15</v>
       </c>
-      <c r="M60" t="n">
-        <v>0.14</v>
-      </c>
       <c r="N60" t="n">
-        <v>54.75</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="O60" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
@@ -3530,48 +3530,48 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>46650</v>
+        <v>46604</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>46665</v>
+        <v>46625</v>
       </c>
       <c r="D61" t="n">
         <v>5</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F61" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G61" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H61" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="I61" t="n">
-        <v>422</v>
+        <v>571</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="L61" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="M61" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="N61" t="n">
-        <v>65.65000000000001</v>
+        <v>55.89</v>
       </c>
       <c r="O61" t="n">
-        <v>90</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
@@ -3581,48 +3581,48 @@
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>46666</v>
+        <v>46626</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>46676</v>
+        <v>46646</v>
       </c>
       <c r="D62" t="n">
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F62" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G62" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H62" t="n">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="I62" t="n">
-        <v>487</v>
+        <v>781</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="L62" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="M62" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N62" t="n">
-        <v>39.32</v>
+        <v>54.88</v>
       </c>
       <c r="O62" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>46677</v>
+        <v>46647</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>46692</v>
+        <v>46657</v>
       </c>
       <c r="D63" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G63" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H63" t="n">
-        <v>735</v>
+        <v>450</v>
       </c>
       <c r="I63" t="n">
-        <v>522</v>
+        <v>419</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L63" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="M63" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="N63" t="n">
-        <v>59.48</v>
+        <v>56.94</v>
       </c>
       <c r="O63" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
@@ -3683,48 +3683,48 @@
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>46693</v>
+        <v>46658</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>46712</v>
+        <v>46677</v>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
         <v>19</v>
       </c>
       <c r="F64" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G64" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H64" t="n">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="I64" t="n">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L64" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="M64" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="N64" t="n">
-        <v>35.59</v>
+        <v>62.61</v>
       </c>
       <c r="O64" t="n">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65">
@@ -3734,28 +3734,28 @@
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>46713</v>
+        <v>46678</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>46728</v>
+        <v>46694</v>
       </c>
       <c r="D65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F65" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G65" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H65" t="n">
-        <v>720</v>
+        <v>784</v>
       </c>
       <c r="I65" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3763,19 +3763,19 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="L65" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="N65" t="n">
-        <v>64.59999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="O65" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66">
@@ -3785,48 +3785,48 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>46729</v>
+        <v>46695</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>46746</v>
+        <v>46711</v>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66" t="n">
         <v>27</v>
       </c>
       <c r="G66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H66" t="n">
-        <v>816</v>
+        <v>480</v>
       </c>
       <c r="I66" t="n">
-        <v>768</v>
+        <v>401</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L66" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="M66" t="n">
         <v>0.1</v>
       </c>
       <c r="N66" t="n">
-        <v>55.78</v>
+        <v>58.05</v>
       </c>
       <c r="O66" t="n">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67">
@@ -3836,48 +3836,48 @@
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>46747</v>
+        <v>46712</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>46757</v>
+        <v>46725</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F67" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G67" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H67" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="I67" t="n">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L67" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="M67" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="N67" t="n">
-        <v>54.67</v>
+        <v>51.31</v>
       </c>
       <c r="O67" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68">
@@ -3887,36 +3887,36 @@
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>46758</v>
+        <v>46726</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>46778</v>
+        <v>46745</v>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F68" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G68" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H68" t="n">
-        <v>980</v>
+        <v>570</v>
       </c>
       <c r="I68" t="n">
-        <v>972</v>
+        <v>490</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="L68" t="n">
         <v>0.21</v>
@@ -3925,10 +3925,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N68" t="n">
-        <v>61.1</v>
+        <v>37.77</v>
       </c>
       <c r="O68" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69">
@@ -3938,28 +3938,28 @@
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>46779</v>
+        <v>46746</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>46789</v>
+        <v>46765</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F69" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G69" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H69" t="n">
-        <v>250</v>
+        <v>665</v>
       </c>
       <c r="I69" t="n">
-        <v>208</v>
+        <v>568</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3967,19 +3967,19 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L69" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="M69" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="N69" t="n">
-        <v>38.7</v>
+        <v>65.53</v>
       </c>
       <c r="O69" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70">
@@ -3989,48 +3989,48 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>46790</v>
+        <v>46766</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>46809</v>
+        <v>46786</v>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F70" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G70" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H70" t="n">
-        <v>513</v>
+        <v>980</v>
       </c>
       <c r="I70" t="n">
-        <v>484</v>
+        <v>957</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L70" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="M70" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="N70" t="n">
-        <v>54.28</v>
+        <v>51.79</v>
       </c>
       <c r="O70" t="n">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -4040,48 +4040,48 @@
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>46810</v>
+        <v>46787</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>46825</v>
+        <v>46806</v>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F71" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G71" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H71" t="n">
-        <v>1050</v>
+        <v>342</v>
       </c>
       <c r="I71" t="n">
-        <v>1043</v>
+        <v>240</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="M71" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="N71" t="n">
-        <v>47.22</v>
+        <v>57.67</v>
       </c>
       <c r="O71" t="n">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72">
@@ -4091,48 +4091,48 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>46826</v>
+        <v>46807</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>46836</v>
+        <v>46827</v>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F72" t="n">
+        <v>43</v>
+      </c>
+      <c r="G72" t="n">
         <v>32</v>
       </c>
-      <c r="G72" t="n">
-        <v>26</v>
-      </c>
       <c r="H72" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="I72" t="n">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Dados</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="L72" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="M72" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="N72" t="n">
-        <v>34.3</v>
+        <v>61.94</v>
       </c>
       <c r="O72" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73">
@@ -4142,28 +4142,28 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>46837</v>
+        <v>46828</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>46858</v>
+        <v>46847</v>
       </c>
       <c r="D73" t="n">
         <v>5</v>
       </c>
       <c r="E73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F73" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G73" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H73" t="n">
-        <v>735</v>
+        <v>665</v>
       </c>
       <c r="I73" t="n">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -4171,19 +4171,19 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L73" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="M73" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="N73" t="n">
-        <v>63.15</v>
+        <v>58.19</v>
       </c>
       <c r="O73" t="n">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
@@ -4193,28 +4193,28 @@
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>46859</v>
+        <v>46848</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>46878</v>
+        <v>46864</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
+        <v>16</v>
+      </c>
+      <c r="F74" t="n">
+        <v>27</v>
+      </c>
+      <c r="G74" t="n">
         <v>19</v>
       </c>
-      <c r="F74" t="n">
-        <v>33</v>
-      </c>
-      <c r="G74" t="n">
-        <v>24</v>
-      </c>
       <c r="H74" t="n">
-        <v>912</v>
+        <v>720</v>
       </c>
       <c r="I74" t="n">
-        <v>702</v>
+        <v>575</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -4222,19 +4222,19 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="L74" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="M74" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="N74" t="n">
-        <v>52.11</v>
+        <v>50.68</v>
       </c>
       <c r="O74" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -4244,28 +4244,28 @@
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>46879</v>
+        <v>46865</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>46897</v>
+        <v>46886</v>
       </c>
       <c r="D75" t="n">
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F75" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G75" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H75" t="n">
-        <v>882</v>
+        <v>1470</v>
       </c>
       <c r="I75" t="n">
-        <v>684</v>
+        <v>1039</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -4273,19 +4273,19 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="M75" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="N75" t="n">
-        <v>62.56</v>
+        <v>55.14</v>
       </c>
       <c r="O75" t="n">
-        <v>126</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76">
@@ -4295,28 +4295,28 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>46898</v>
+        <v>46887</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>46914</v>
+        <v>46897</v>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G76" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H76" t="n">
-        <v>672</v>
+        <v>360</v>
       </c>
       <c r="I76" t="n">
-        <v>577</v>
+        <v>254</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4324,19 +4324,19 @@
         </is>
       </c>
       <c r="K76" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="L76" t="n">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="M76" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="N76" t="n">
-        <v>51</v>
+        <v>61.86</v>
       </c>
       <c r="O76" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
@@ -4346,28 +4346,28 @@
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>46915</v>
+        <v>46898</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>46931</v>
+        <v>46913</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F77" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H77" t="n">
-        <v>672</v>
+        <v>360</v>
       </c>
       <c r="I77" t="n">
-        <v>656</v>
+        <v>258</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -4375,19 +4375,19 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L77" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="M77" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="N77" t="n">
-        <v>38.1</v>
+        <v>61.41</v>
       </c>
       <c r="O77" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78">
@@ -4397,28 +4397,28 @@
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>46932</v>
+        <v>46914</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>46945</v>
+        <v>46925</v>
       </c>
       <c r="D78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G78" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H78" t="n">
-        <v>546</v>
+        <v>495</v>
       </c>
       <c r="I78" t="n">
-        <v>542</v>
+        <v>419</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -4426,19 +4426,19 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L78" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="M78" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="N78" t="n">
-        <v>69.23999999999999</v>
+        <v>54.25</v>
       </c>
       <c r="O78" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79">
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="B79" s="2" t="n">
+        <v>46926</v>
+      </c>
+      <c r="C79" s="2" t="n">
         <v>46946</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>46966</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
@@ -4460,36 +4460,36 @@
         <v>20</v>
       </c>
       <c r="F79" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G79" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H79" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="I79" t="n">
-        <v>346</v>
+        <v>472</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="M79" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="N79" t="n">
-        <v>33.03</v>
+        <v>42.82</v>
       </c>
       <c r="O79" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
@@ -4499,48 +4499,48 @@
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>46967</v>
+        <v>46947</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>46986</v>
+        <v>46962</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F80" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G80" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H80" t="n">
-        <v>399</v>
+        <v>750</v>
       </c>
       <c r="I80" t="n">
-        <v>333</v>
+        <v>657</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="L80" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="M80" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="N80" t="n">
-        <v>34.53</v>
+        <v>42.97</v>
       </c>
       <c r="O80" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81">
@@ -4550,48 +4550,48 @@
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>46987</v>
+        <v>46963</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>47002</v>
+        <v>46974</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G81" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H81" t="n">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="I81" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L81" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="M81" t="n">
         <v>0.12</v>
       </c>
       <c r="N81" t="n">
-        <v>51.12</v>
+        <v>60.52</v>
       </c>
       <c r="O81" t="n">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82">
@@ -4601,48 +4601,48 @@
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>47003</v>
+        <v>46975</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>47018</v>
+        <v>46991</v>
       </c>
       <c r="D82" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F82" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G82" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H82" t="n">
-        <v>630</v>
+        <v>320</v>
       </c>
       <c r="I82" t="n">
-        <v>527</v>
+        <v>260</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L82" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="M82" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N82" t="n">
-        <v>50.78</v>
+        <v>32.41</v>
       </c>
       <c r="O82" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
@@ -4652,48 +4652,48 @@
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>47019</v>
+        <v>46992</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>47034</v>
+        <v>47011</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F83" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G83" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H83" t="n">
-        <v>315</v>
+        <v>760</v>
       </c>
       <c r="I83" t="n">
-        <v>293</v>
+        <v>551</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L83" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="M83" t="n">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="N83" t="n">
-        <v>43.27</v>
+        <v>62.6</v>
       </c>
       <c r="O83" t="n">
-        <v>105</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84">
@@ -4703,28 +4703,28 @@
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>47035</v>
+        <v>47012</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>47045</v>
+        <v>47032</v>
       </c>
       <c r="D84" t="n">
         <v>6</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F84" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G84" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H84" t="n">
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="I84" t="n">
-        <v>397</v>
+        <v>762</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4732,19 +4732,19 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L84" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="M84" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="N84" t="n">
-        <v>30.71</v>
+        <v>60.83</v>
       </c>
       <c r="O84" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85">
@@ -4754,48 +4754,48 @@
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>47046</v>
+        <v>47033</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>47059</v>
+        <v>47047</v>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F85" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G85" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H85" t="n">
-        <v>455</v>
+        <v>252</v>
       </c>
       <c r="I85" t="n">
-        <v>416</v>
+        <v>177</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K85" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L85" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M85" t="n">
         <v>0.1</v>
       </c>
-      <c r="M85" t="n">
-        <v>0.18</v>
-      </c>
       <c r="N85" t="n">
-        <v>63.47</v>
+        <v>39.49</v>
       </c>
       <c r="O85" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
@@ -4805,28 +4805,28 @@
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>47060</v>
+        <v>47048</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>47080</v>
+        <v>47064</v>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F86" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G86" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H86" t="n">
-        <v>480</v>
+        <v>1120</v>
       </c>
       <c r="I86" t="n">
-        <v>339</v>
+        <v>819</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4834,19 +4834,19 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L86" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="M86" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="N86" t="n">
-        <v>64.05</v>
+        <v>54.66</v>
       </c>
       <c r="O86" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87">
@@ -4856,48 +4856,48 @@
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>47081</v>
+        <v>47065</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>47100</v>
+        <v>47078</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F87" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G87" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H87" t="n">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="I87" t="n">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K87" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L87" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="M87" t="n">
         <v>0.13</v>
       </c>
       <c r="N87" t="n">
-        <v>64.15000000000001</v>
+        <v>39.04</v>
       </c>
       <c r="O87" t="n">
-        <v>171</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88">
@@ -4907,48 +4907,48 @@
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>47101</v>
+        <v>47079</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>47116</v>
+        <v>47090</v>
       </c>
       <c r="D88" t="n">
         <v>4</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F88" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G88" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H88" t="n">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="I88" t="n">
-        <v>393</v>
+        <v>204</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L88" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="M88" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="N88" t="n">
-        <v>59.49</v>
+        <v>49.65</v>
       </c>
       <c r="O88" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89">
@@ -4958,48 +4958,48 @@
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>47117</v>
+        <v>47091</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>47127</v>
+        <v>47101</v>
       </c>
       <c r="D89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G89" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H89" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="I89" t="n">
-        <v>503</v>
+        <v>313</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K89" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L89" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="M89" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="N89" t="n">
-        <v>46.97</v>
+        <v>54.06</v>
       </c>
       <c r="O89" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90">
@@ -5009,28 +5009,28 @@
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>47128</v>
+        <v>47102</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>47148</v>
+        <v>47120</v>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F90" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G90" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H90" t="n">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="I90" t="n">
-        <v>688</v>
+        <v>628</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -5038,19 +5038,19 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="M90" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="N90" t="n">
-        <v>32.23</v>
+        <v>62.14</v>
       </c>
       <c r="O90" t="n">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91">
@@ -5060,48 +5060,48 @@
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>47149</v>
+        <v>47121</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>47165</v>
+        <v>47140</v>
       </c>
       <c r="D91" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F91" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G91" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H91" t="n">
-        <v>672</v>
+        <v>760</v>
       </c>
       <c r="I91" t="n">
-        <v>600</v>
+        <v>685</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L91" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="M91" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="N91" t="n">
-        <v>42.86</v>
+        <v>36.75</v>
       </c>
       <c r="O91" t="n">
-        <v>96</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92">
@@ -5111,48 +5111,48 @@
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>47166</v>
+        <v>47141</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>47176</v>
+        <v>47155</v>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F92" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G92" t="n">
         <v>39</v>
       </c>
       <c r="H92" t="n">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="I92" t="n">
-        <v>241</v>
+        <v>345</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K92" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L92" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="M92" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N92" t="n">
-        <v>61.03</v>
+        <v>48.57</v>
       </c>
       <c r="O92" t="n">
-        <v>70</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93">
@@ -5162,48 +5162,48 @@
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>47177</v>
+        <v>47156</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>47191</v>
+        <v>47167</v>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F93" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G93" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H93" t="n">
-        <v>630</v>
+        <v>693</v>
       </c>
       <c r="I93" t="n">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K93" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L93" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="M93" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="N93" t="n">
-        <v>31.81</v>
+        <v>34.08</v>
       </c>
       <c r="O93" t="n">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94">
@@ -5213,28 +5213,28 @@
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>47192</v>
+        <v>47168</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>47203</v>
+        <v>47182</v>
       </c>
       <c r="D94" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F94" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G94" t="n">
         <v>35</v>
       </c>
       <c r="H94" t="n">
-        <v>539</v>
+        <v>420</v>
       </c>
       <c r="I94" t="n">
-        <v>454</v>
+        <v>352</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -5245,16 +5245,16 @@
         <v>3.3</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="M94" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="N94" t="n">
-        <v>54.52</v>
+        <v>51.4</v>
       </c>
       <c r="O94" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95">
@@ -5264,48 +5264,48 @@
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>47204</v>
+        <v>47183</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>47215</v>
+        <v>47195</v>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G95" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H95" t="n">
-        <v>308</v>
+        <v>840</v>
       </c>
       <c r="I95" t="n">
-        <v>225</v>
+        <v>659</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L95" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="M95" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="N95" t="n">
-        <v>58.09</v>
+        <v>45.87</v>
       </c>
       <c r="O95" t="n">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96">
@@ -5315,48 +5315,48 @@
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>47216</v>
+        <v>47196</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>47228</v>
+        <v>47215</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E96" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F96" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G96" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H96" t="n">
-        <v>216</v>
+        <v>608</v>
       </c>
       <c r="I96" t="n">
-        <v>170</v>
+        <v>528</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="K96" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L96" t="n">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M96" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="N96" t="n">
-        <v>46.7</v>
+        <v>51.63</v>
       </c>
       <c r="O96" t="n">
-        <v>72</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
@@ -5366,28 +5366,28 @@
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>47229</v>
+        <v>47216</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>47249</v>
+        <v>47233</v>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G97" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H97" t="n">
-        <v>900</v>
+        <v>408</v>
       </c>
       <c r="I97" t="n">
-        <v>837</v>
+        <v>367</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -5395,19 +5395,19 @@
         </is>
       </c>
       <c r="K97" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L97" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="M97" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="N97" t="n">
-        <v>51.11</v>
+        <v>35.66</v>
       </c>
       <c r="O97" t="n">
-        <v>180</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
@@ -5417,48 +5417,48 @@
         </is>
       </c>
       <c r="B98" s="2" t="n">
+        <v>47234</v>
+      </c>
+      <c r="C98" s="2" t="n">
         <v>47250</v>
       </c>
-      <c r="C98" s="2" t="n">
-        <v>47264</v>
-      </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E98" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F98" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G98" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H98" t="n">
-        <v>392</v>
+        <v>288</v>
       </c>
       <c r="I98" t="n">
-        <v>337</v>
+        <v>259</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K98" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="L98" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="M98" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="N98" t="n">
-        <v>46.91</v>
+        <v>66.39</v>
       </c>
       <c r="O98" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99">
@@ -5468,48 +5468,48 @@
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>47265</v>
+        <v>47251</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>47281</v>
+        <v>47270</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E99" t="n">
+        <v>19</v>
+      </c>
+      <c r="F99" t="n">
+        <v>22</v>
+      </c>
+      <c r="G99" t="n">
         <v>16</v>
       </c>
-      <c r="F99" t="n">
-        <v>27</v>
-      </c>
-      <c r="G99" t="n">
-        <v>26</v>
-      </c>
       <c r="H99" t="n">
-        <v>640</v>
+        <v>798</v>
       </c>
       <c r="I99" t="n">
-        <v>615</v>
+        <v>784</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="K99" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M99" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="N99" t="n">
-        <v>42.75</v>
+        <v>46.06</v>
       </c>
       <c r="O99" t="n">
-        <v>160</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100">
@@ -5519,28 +5519,28 @@
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>47282</v>
+        <v>47271</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>47302</v>
+        <v>47289</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F100" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G100" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H100" t="n">
-        <v>1080</v>
+        <v>648</v>
       </c>
       <c r="I100" t="n">
-        <v>961</v>
+        <v>495</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -5548,19 +5548,19 @@
         </is>
       </c>
       <c r="K100" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="L100" t="n">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="M100" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="N100" t="n">
-        <v>52.59</v>
+        <v>55.79</v>
       </c>
       <c r="O100" t="n">
-        <v>180</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101">
@@ -5570,48 +5570,48 @@
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>47303</v>
+        <v>47290</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>47324</v>
+        <v>47300</v>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F101" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G101" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H101" t="n">
-        <v>1134</v>
+        <v>350</v>
       </c>
       <c r="I101" t="n">
-        <v>1099</v>
+        <v>283</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>API</t>
         </is>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="L101" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="M101" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="N101" t="n">
-        <v>40.99</v>
+        <v>63.57</v>
       </c>
       <c r="O101" t="n">
-        <v>189</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
